--- a/data/raw_data/IHDI.xlsx
+++ b/data/raw_data/IHDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl/Downloads/STAT/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9C277-6978-6B44-A119-52CABB2D55A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B1EB3-5A3C-804D-901F-1DFE794C745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{3AF1E20E-4309-4781-9DFA-6736AE4D1C5A}"/>
   </bookViews>
@@ -1048,15 +1048,16 @@
   <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2879,20 +2880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Yu-Chieh Hsu</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD45DB714643E4A8A8C58D3ECEF2B52" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eca3b89dbbf6139cde4566a1496413c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0611ad7-5071-45af-a141-b2a079deb018" xmlns:ns3="7f64e6aa-b736-4f26-84cc-faf427629e48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec72a94c6ab355cc030882cac5fa7ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="b0611ad7-5071-45af-a141-b2a079deb018"/>
@@ -3097,6 +3084,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Yu-Chieh Hsu</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3107,16 +3108,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B325BC6-7C16-42DD-86CE-D59B3F647B4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C295FE-A448-4E9D-839E-C7B58D9A0135}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3135,6 +3126,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B325BC6-7C16-42DD-86CE-D59B3F647B4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A0FC4C-2605-4EE2-82B5-3922C3B005FA}">
   <ds:schemaRefs>
